--- a/_resource/excel/task.xlsx
+++ b/_resource/excel/task.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26175" windowHeight="13065"/>
+    <workbookView windowWidth="26340" windowHeight="13065"/>
   </bookViews>
   <sheets>
     <sheet name="task" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="F1" authorId="0">
+    <comment ref="H1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -44,7 +44,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K1" authorId="0">
+    <comment ref="L1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -68,7 +68,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L1" authorId="0">
+    <comment ref="M1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -94,7 +94,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J2" authorId="0">
+    <comment ref="K2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -119,7 +119,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M2" authorId="0">
+    <comment ref="N2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -143,7 +143,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N2" authorId="0">
+    <comment ref="O2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -168,7 +168,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O2" authorId="0">
+    <comment ref="P2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -193,7 +193,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P2" authorId="0">
+    <comment ref="Q2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -221,7 +221,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="51">
   <si>
     <t>Description</t>
   </si>
@@ -229,27 +229,30 @@
     <t>Id</t>
   </si>
   <si>
+    <t>ParentName</t>
+  </si>
+  <si>
+    <t>DataName</t>
+  </si>
+  <si>
+    <t>DataKey</t>
+  </si>
+  <si>
     <t>Level</t>
   </si>
   <si>
+    <t>Receive</t>
+  </si>
+  <si>
+    <t>HandleType</t>
+  </si>
+  <si>
     <t>StartTime</t>
   </si>
   <si>
     <t>EndTime</t>
   </si>
   <si>
-    <t>HandleType</t>
-  </si>
-  <si>
-    <t>ParentName</t>
-  </si>
-  <si>
-    <t>DataName</t>
-  </si>
-  <si>
-    <t>DataKey</t>
-  </si>
-  <si>
     <t>TriggerType</t>
   </si>
   <si>
@@ -292,27 +295,30 @@
     <t>任务id</t>
   </si>
   <si>
+    <t>父属性名</t>
+  </si>
+  <si>
+    <t>子属性名</t>
+  </si>
+  <si>
+    <t>属性key</t>
+  </si>
+  <si>
     <t>等级限制</t>
   </si>
   <si>
+    <t>是否需要接受任务</t>
+  </si>
+  <si>
+    <t>类型</t>
+  </si>
+  <si>
     <t>开始时间</t>
   </si>
   <si>
     <t>结束时间</t>
   </si>
   <si>
-    <t>类型</t>
-  </si>
-  <si>
-    <t>父属性名</t>
-  </si>
-  <si>
-    <t>子属性名</t>
-  </si>
-  <si>
-    <t>属性key</t>
-  </si>
-  <si>
     <t>触发条件</t>
   </si>
   <si>
@@ -358,16 +364,10 @@
     <t>onlinetime</t>
   </si>
   <si>
-    <t>[{"money":{"money":"50"}}]</t>
+    <t>[{"money":"50"}]</t>
   </si>
   <si>
     <t>12-13点登录奖励</t>
-  </si>
-  <si>
-    <t>12-00</t>
-  </si>
-  <si>
-    <t>13-00</t>
   </si>
   <si>
     <t>消耗100金币</t>
@@ -381,12 +381,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -408,21 +408,66 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -444,69 +489,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -520,14 +521,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="等线"/>
@@ -557,8 +550,19 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="37">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -591,19 +595,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -615,55 +721,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -675,103 +763,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -813,6 +805,36 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -820,6 +842,15 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -854,45 +885,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -913,148 +905,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1072,10 +1064,10 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="20" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1400,36 +1392,38 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:U6"/>
+  <dimension ref="A1:V6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A$1:A$1048576"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5"/>
   <cols>
-    <col min="1" max="1" width="14.375" customWidth="1"/>
+    <col min="1" max="1" width="16.375" customWidth="1"/>
     <col min="2" max="2" width="7.25" customWidth="1"/>
-    <col min="3" max="3" width="9" customWidth="1"/>
-    <col min="4" max="4" width="10.5" customWidth="1"/>
-    <col min="5" max="5" width="9" customWidth="1"/>
-    <col min="6" max="7" width="11.625" customWidth="1"/>
-    <col min="8" max="9" width="9.5" customWidth="1"/>
-    <col min="10" max="10" width="12.75" customWidth="1"/>
-    <col min="11" max="11" width="13.875" customWidth="1"/>
-    <col min="12" max="12" width="12.75" customWidth="1"/>
-    <col min="13" max="13" width="11" customWidth="1"/>
-    <col min="14" max="14" width="15.125" customWidth="1"/>
-    <col min="15" max="15" width="17.25" customWidth="1"/>
-    <col min="16" max="16" width="10.5" customWidth="1"/>
-    <col min="17" max="17" width="23.625" customWidth="1"/>
-    <col min="18" max="18" width="11" customWidth="1"/>
-    <col min="19" max="19" width="13" customWidth="1"/>
-    <col min="20" max="20" width="19.25" customWidth="1"/>
-    <col min="21" max="21" width="12.75" customWidth="1"/>
+    <col min="3" max="3" width="11.625" customWidth="1"/>
+    <col min="4" max="5" width="9.5" customWidth="1"/>
+    <col min="6" max="6" width="9" customWidth="1"/>
+    <col min="7" max="7" width="17.125" customWidth="1"/>
+    <col min="8" max="8" width="11.625" customWidth="1"/>
+    <col min="9" max="9" width="10.5" customWidth="1"/>
+    <col min="10" max="10" width="9" customWidth="1"/>
+    <col min="11" max="11" width="12.75" customWidth="1"/>
+    <col min="12" max="12" width="13.875" customWidth="1"/>
+    <col min="13" max="13" width="12.75" customWidth="1"/>
+    <col min="14" max="14" width="11" customWidth="1"/>
+    <col min="15" max="15" width="15.125" customWidth="1"/>
+    <col min="16" max="16" width="17.25" customWidth="1"/>
+    <col min="17" max="17" width="10.5" customWidth="1"/>
+    <col min="18" max="18" width="23.625" customWidth="1"/>
+    <col min="19" max="19" width="11" customWidth="1"/>
+    <col min="20" max="20" width="13" customWidth="1"/>
+    <col min="21" max="21" width="19.25" customWidth="1"/>
+    <col min="22" max="22" width="12.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="13.5" spans="1:21">
+    <row r="1" s="1" customFormat="1" ht="13.5" spans="1:22">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1493,244 +1487,259 @@
       <c r="U1" s="1" t="s">
         <v>20</v>
       </c>
+      <c r="V1" s="1" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="2" s="2" customFormat="1" ht="13.5" spans="1:21">
+    <row r="2" s="2" customFormat="1" ht="13.5" spans="1:22">
       <c r="A2" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
+      </c>
+      <c r="V2" s="2" t="s">
+        <v>43</v>
       </c>
     </row>
-    <row r="3" s="3" customFormat="1" spans="11:16">
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
-      <c r="P3" s="6"/>
+    <row r="3" s="3" customFormat="1" spans="12:17">
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="Q3" s="5"/>
     </row>
-    <row r="4" s="4" customFormat="1" customHeight="1" spans="1:20">
+    <row r="4" s="4" customFormat="1" customHeight="1" spans="1:21">
       <c r="A4" s="4" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B4" s="4">
         <v>1</v>
       </c>
-      <c r="C4" s="4">
-        <v>0</v>
-      </c>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
+      <c r="C4" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E4" s="4">
+        <v>0</v>
+      </c>
       <c r="F4" s="4">
+        <v>0</v>
+      </c>
+      <c r="G4" s="4">
+        <v>0</v>
+      </c>
+      <c r="H4" s="4">
         <v>1</v>
       </c>
-      <c r="G4" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="I4" s="4">
-        <v>0</v>
-      </c>
-      <c r="J4" s="4">
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="4">
         <v>3</v>
       </c>
-      <c r="K4" s="4">
-        <v>0</v>
-      </c>
       <c r="L4" s="4">
+        <v>0</v>
+      </c>
+      <c r="M4" s="4">
         <v>3</v>
-      </c>
-      <c r="M4" s="4">
-        <v>1</v>
       </c>
       <c r="N4" s="4">
         <v>1</v>
       </c>
       <c r="O4" s="4">
+        <v>1</v>
+      </c>
+      <c r="P4" s="4">
         <v>11</v>
       </c>
-      <c r="P4" s="4">
+      <c r="Q4" s="4">
         <v>1</v>
       </c>
-      <c r="Q4" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="R4" s="4">
-        <v>0</v>
+      <c r="R4" s="4" t="s">
+        <v>47</v>
       </c>
       <c r="S4" s="4">
         <v>0</v>
       </c>
-      <c r="T4" s="7"/>
+      <c r="T4" s="4">
+        <v>0</v>
+      </c>
+      <c r="U4" s="7"/>
     </row>
-    <row r="5" s="4" customFormat="1" customHeight="1" spans="1:20">
+    <row r="5" s="4" customFormat="1" customHeight="1" spans="1:21">
       <c r="A5" s="4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B5" s="4">
         <v>2</v>
       </c>
-      <c r="C5" s="4">
-        <v>0</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>48</v>
+      <c r="C5" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E5" s="4">
+        <v>0</v>
       </c>
       <c r="F5" s="4">
+        <v>0</v>
+      </c>
+      <c r="G5" s="4">
+        <v>0</v>
+      </c>
+      <c r="H5" s="4">
         <v>1</v>
       </c>
-      <c r="G5" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="I5" s="4">
-        <v>0</v>
-      </c>
-      <c r="J5" s="4">
+      <c r="I5" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="J5" s="6">
+        <v>0.541666666666667</v>
+      </c>
+      <c r="K5" s="4">
         <v>3</v>
       </c>
-      <c r="K5" s="4">
-        <v>0</v>
-      </c>
       <c r="L5" s="4">
+        <v>0</v>
+      </c>
+      <c r="M5" s="4">
         <v>3</v>
-      </c>
-      <c r="M5" s="4">
-        <v>1</v>
       </c>
       <c r="N5" s="4">
         <v>1</v>
       </c>
       <c r="O5" s="4">
+        <v>1</v>
+      </c>
+      <c r="P5" s="4">
         <v>11</v>
       </c>
-      <c r="P5" s="4">
+      <c r="Q5" s="4">
         <v>1</v>
       </c>
-      <c r="Q5" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="R5" s="4">
-        <v>0</v>
+      <c r="R5" s="4" t="s">
+        <v>47</v>
       </c>
       <c r="S5" s="4">
         <v>0</v>
       </c>
-      <c r="T5" s="7"/>
+      <c r="T5" s="4">
+        <v>0</v>
+      </c>
+      <c r="U5" s="7"/>
     </row>
-    <row r="6" spans="1:19">
+    <row r="6" spans="1:20">
       <c r="A6" t="s">
         <v>49</v>
       </c>
       <c r="B6">
         <v>3</v>
       </c>
-      <c r="C6">
+      <c r="C6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D6" t="s">
+        <v>50</v>
+      </c>
+      <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
         <v>1</v>
       </c>
-      <c r="G6" t="s">
-        <v>43</v>
-      </c>
-      <c r="H6" t="s">
-        <v>50</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6">
+      <c r="K6">
         <v>2</v>
       </c>
-      <c r="K6">
-        <v>0</v>
-      </c>
       <c r="L6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M6">
         <v>1</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
         <v>11</v>
       </c>
-      <c r="P6">
+      <c r="Q6">
         <v>100</v>
       </c>
-      <c r="Q6" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="R6">
-        <v>0</v>
+      <c r="R6" s="4" t="s">
+        <v>47</v>
       </c>
       <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6">
         <v>0</v>
       </c>
     </row>

--- a/_resource/excel/task.xlsx
+++ b/_resource/excel/task.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26340" windowHeight="13065"/>
+    <workbookView windowWidth="26310" windowHeight="13065"/>
   </bookViews>
   <sheets>
     <sheet name="task" sheetId="1" r:id="rId1"/>
@@ -221,7 +221,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="53">
   <si>
     <t>Description</t>
   </si>
@@ -368,6 +368,12 @@
   </si>
   <si>
     <t>12-13点登录奖励</t>
+  </si>
+  <si>
+    <t>12:00</t>
+  </si>
+  <si>
+    <t>13:00</t>
   </si>
   <si>
     <t>消耗100金币</t>
@@ -382,9 +388,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -408,74 +414,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -489,25 +428,75 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -521,15 +510,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -537,7 +528,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -548,6 +539,21 @@
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -595,175 +601,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -821,6 +827,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -831,17 +852,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -870,25 +880,21 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -908,10 +914,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -920,137 +926,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
@@ -1064,10 +1070,20 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="20" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1395,7 +1411,7 @@
   <dimension ref="A1:V6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5"/>
@@ -1407,8 +1423,8 @@
     <col min="6" max="6" width="9" customWidth="1"/>
     <col min="7" max="7" width="17.125" customWidth="1"/>
     <col min="8" max="8" width="11.625" customWidth="1"/>
-    <col min="9" max="9" width="10.5" customWidth="1"/>
-    <col min="10" max="10" width="9" customWidth="1"/>
+    <col min="9" max="9" width="10.5" style="5" customWidth="1"/>
+    <col min="10" max="10" width="9" style="5" customWidth="1"/>
     <col min="11" max="11" width="12.75" customWidth="1"/>
     <col min="12" max="12" width="13.875" customWidth="1"/>
     <col min="13" max="13" width="12.75" customWidth="1"/>
@@ -1448,10 +1464,10 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="6" t="s">
         <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
@@ -1516,10 +1532,10 @@
       <c r="H2" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="J2" s="7" t="s">
         <v>31</v>
       </c>
       <c r="K2" s="2" t="s">
@@ -1559,11 +1575,13 @@
         <v>43</v>
       </c>
     </row>
-    <row r="3" s="3" customFormat="1" spans="12:17">
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
-      <c r="Q3" s="5"/>
+    <row r="3" s="3" customFormat="1" spans="9:17">
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
+      <c r="N3" s="9"/>
+      <c r="Q3" s="9"/>
     </row>
     <row r="4" s="4" customFormat="1" customHeight="1" spans="1:21">
       <c r="A4" s="4" t="s">
@@ -1590,8 +1608,8 @@
       <c r="H4" s="4">
         <v>1</v>
       </c>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
       <c r="K4" s="4">
         <v>3</v>
       </c>
@@ -1622,7 +1640,7 @@
       <c r="T4" s="4">
         <v>0</v>
       </c>
-      <c r="U4" s="7"/>
+      <c r="U4" s="11"/>
     </row>
     <row r="5" s="4" customFormat="1" customHeight="1" spans="1:21">
       <c r="A5" s="4" t="s">
@@ -1649,11 +1667,11 @@
       <c r="H5" s="4">
         <v>1</v>
       </c>
-      <c r="I5" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="J5" s="6">
-        <v>0.541666666666667</v>
+      <c r="I5" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="J5" s="10" t="s">
+        <v>50</v>
       </c>
       <c r="K5" s="4">
         <v>3</v>
@@ -1685,11 +1703,11 @@
       <c r="T5" s="4">
         <v>0</v>
       </c>
-      <c r="U5" s="7"/>
+      <c r="U5" s="11"/>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B6">
         <v>3</v>
@@ -1698,7 +1716,7 @@
         <v>45</v>
       </c>
       <c r="D6" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E6">
         <v>0</v>

--- a/_resource/excel/task.xlsx
+++ b/_resource/excel/task.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26310" windowHeight="13065"/>
+    <workbookView windowWidth="26340" windowHeight="13065"/>
   </bookViews>
   <sheets>
     <sheet name="task" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="H1" authorId="0">
+    <comment ref="C1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -229,6 +229,9 @@
     <t>Id</t>
   </si>
   <si>
+    <t>Type</t>
+  </si>
+  <si>
     <t>ParentName</t>
   </si>
   <si>
@@ -238,21 +241,18 @@
     <t>DataKey</t>
   </si>
   <si>
-    <t>Level</t>
-  </si>
-  <si>
     <t>Receive</t>
   </si>
   <si>
-    <t>HandleType</t>
-  </si>
-  <si>
     <t>StartTime</t>
   </si>
   <si>
     <t>EndTime</t>
   </si>
   <si>
+    <t>Limits</t>
+  </si>
+  <si>
     <t>TriggerType</t>
   </si>
   <si>
@@ -295,6 +295,9 @@
     <t>任务id</t>
   </si>
   <si>
+    <t>类型</t>
+  </si>
+  <si>
     <t>父属性名</t>
   </si>
   <si>
@@ -304,19 +307,16 @@
     <t>属性key</t>
   </si>
   <si>
-    <t>等级限制</t>
-  </si>
-  <si>
     <t>是否需要接受任务</t>
   </si>
   <si>
-    <t>类型</t>
-  </si>
-  <si>
     <t>开始时间</t>
   </si>
   <si>
     <t>结束时间</t>
+  </si>
+  <si>
+    <t>限制条件</t>
   </si>
   <si>
     <t>触发条件</t>
@@ -387,10 +387,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -413,8 +413,100 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -428,130 +520,38 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -601,175 +601,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -811,17 +811,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -841,6 +837,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -856,11 +870,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -883,26 +903,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -914,10 +914,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -926,133 +926,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1080,10 +1080,10 @@
     <xf numFmtId="49" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1411,20 +1411,19 @@
   <dimension ref="A1:V6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="C1" sqref="C$1:C$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5"/>
   <cols>
     <col min="1" max="1" width="16.375" customWidth="1"/>
     <col min="2" max="2" width="7.25" customWidth="1"/>
-    <col min="3" max="3" width="11.625" customWidth="1"/>
-    <col min="4" max="5" width="9.5" customWidth="1"/>
-    <col min="6" max="6" width="9" customWidth="1"/>
+    <col min="3" max="4" width="11.625" customWidth="1"/>
+    <col min="5" max="6" width="9.5" customWidth="1"/>
     <col min="7" max="7" width="17.125" customWidth="1"/>
-    <col min="8" max="8" width="11.625" customWidth="1"/>
-    <col min="9" max="9" width="10.5" style="5" customWidth="1"/>
-    <col min="10" max="10" width="9" style="5" customWidth="1"/>
+    <col min="8" max="8" width="10.5" style="5" customWidth="1"/>
+    <col min="9" max="9" width="9" style="5" customWidth="1"/>
+    <col min="10" max="10" width="9" customWidth="1"/>
     <col min="11" max="11" width="12.75" customWidth="1"/>
     <col min="12" max="12" width="13.875" customWidth="1"/>
     <col min="13" max="13" width="12.75" customWidth="1"/>
@@ -1461,13 +1460,13 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="6" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
@@ -1529,13 +1528,13 @@
       <c r="G2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="7" t="s">
         <v>29</v>
       </c>
       <c r="I2" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="J2" s="2" t="s">
         <v>31</v>
       </c>
       <c r="K2" s="2" t="s">
@@ -1575,13 +1574,13 @@
         <v>43</v>
       </c>
     </row>
-    <row r="3" s="3" customFormat="1" spans="9:17">
+    <row r="3" s="3" customFormat="1" spans="8:17">
+      <c r="H3" s="8"/>
       <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="L3" s="9"/>
-      <c r="M3" s="9"/>
-      <c r="N3" s="9"/>
-      <c r="Q3" s="9"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="10"/>
+      <c r="Q3" s="10"/>
     </row>
     <row r="4" s="4" customFormat="1" customHeight="1" spans="1:21">
       <c r="A4" s="4" t="s">
@@ -1590,14 +1589,14 @@
       <c r="B4" s="4">
         <v>1</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="4">
+        <v>1</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="E4" s="4" t="s">
         <v>46</v>
-      </c>
-      <c r="E4" s="4">
-        <v>0</v>
       </c>
       <c r="F4" s="4">
         <v>0</v>
@@ -1605,11 +1604,9 @@
       <c r="G4" s="4">
         <v>0</v>
       </c>
-      <c r="H4" s="4">
-        <v>1</v>
-      </c>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="4"/>
       <c r="K4" s="4">
         <v>3</v>
       </c>
@@ -1649,14 +1646,14 @@
       <c r="B5" s="4">
         <v>2</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="4">
+        <v>1</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="E5" s="4" t="s">
         <v>46</v>
-      </c>
-      <c r="E5" s="4">
-        <v>0</v>
       </c>
       <c r="F5" s="4">
         <v>0</v>
@@ -1664,15 +1661,13 @@
       <c r="G5" s="4">
         <v>0</v>
       </c>
-      <c r="H5" s="4">
-        <v>1</v>
-      </c>
-      <c r="I5" s="10" t="s">
+      <c r="H5" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="J5" s="10" t="s">
+      <c r="I5" s="9" t="s">
         <v>50</v>
       </c>
+      <c r="J5" s="4"/>
       <c r="K5" s="4">
         <v>3</v>
       </c>
@@ -1712,23 +1707,20 @@
       <c r="B6">
         <v>3</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
         <v>45</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>52</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
         <v>0</v>
-      </c>
-      <c r="H6">
-        <v>1</v>
       </c>
       <c r="K6">
         <v>2</v>

--- a/_resource/excel/task.xlsx
+++ b/_resource/excel/task.xlsx
@@ -259,7 +259,7 @@
     <t>TriggerValue</t>
   </si>
   <si>
-    <t>OperateType</t>
+    <t>Operate</t>
   </si>
   <si>
     <t>UseType</t>
@@ -1410,8 +1410,8 @@
   <sheetPr/>
   <dimension ref="A1:V6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C$1:C$1048576"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="P11" sqref="M1:P11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5"/>
